--- a/biology/Médecine/Jean_Giraudeau_(médecin)/Jean_Giraudeau_(médecin).xlsx
+++ b/biology/Médecine/Jean_Giraudeau_(médecin)/Jean_Giraudeau_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Giraudeau_(m%C3%A9decin)</t>
+          <t>Jean_Giraudeau_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Giraudeau (ou Jean Giraudeau-Saint-Gervais) est un médecin français, né le 14 brumaire an X (5 novembre 1801) à Saint-Gervais-les-Trois-Clochers et mort le 2 juin 1861 à Bouffémont (Seine-et-Oise). Il fut chevalier de la Légion d'honneur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Giraudeau_(m%C3%A9decin)</t>
+          <t>Jean_Giraudeau_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 14 brumaire an X à Saint-Gervais, Jean Giraudeau est fils de Jean Giraudeau et de Geneviève Bergier. Après des études au collège de Châtellerault, Jean part étudier à Paris. En 1821, il est étudiant en droit mais abandonne bientôt cette discipline pour se consacrer à la médecine : en 1825, il est reçu docteur avec une thèse consacrée aux affections syphilitiques. En peu de temps il acquit une certaine célébrité et grossit sa fortune avec des annonces ou des publicités médicales qui, fructueuses pendant quelques années, lui coûtèrent 150 000 francs par an si l'on en croit ses biographes Germain Sarrut et Edme-Théodore Bourg. Il écrivit aussi plusieurs ouvrages de médecine qui ont été traduits en de nombreuses langues. Jean Giraudeau s'intéressa également à l'histoire locale de sa région natale.
-Il était l'un des principaux actionnaires du journal Le Siècle[1].
-Jean Giraudeau obtint, par une décision du 4 mai 1859, le droit de changer son nom en "Giraudeau-Saint-Gervais"[2]. Cette décision fut confirmée par un jugement du tribunal civil de première instance de Châtellerault du 25 juin 1860[3]. Bien avant cette date, il avait publié la plupart de ses ouvrages sous le nom de "Giraudeau de Saint-Gervais".
+Il était l'un des principaux actionnaires du journal Le Siècle.
+Jean Giraudeau obtint, par une décision du 4 mai 1859, le droit de changer son nom en "Giraudeau-Saint-Gervais". Cette décision fut confirmée par un jugement du tribunal civil de première instance de Châtellerault du 25 juin 1860. Bien avant cette date, il avait publié la plupart de ses ouvrages sous le nom de "Giraudeau de Saint-Gervais".
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Giraudeau_(m%C3%A9decin)</t>
+          <t>Jean_Giraudeau_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médecine
 De la thérapeutique des affections syphilitiques sans l'emploi du mercure, Paris, 1825 Disponible sur Medic@ ;
